--- a/РАБОЧИЙ СТОЛ/22,05,25 ПОКОМ ЗПФ филиалы/дв 22,05,25 бррсч пок зпф от Сарана (согласовал Куценко).xlsx
+++ b/РАБОЧИЙ СТОЛ/22,05,25 ПОКОМ ЗПФ филиалы/дв 22,05,25 бррсч пок зпф от Сарана (согласовал Куценко).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\22,05,25 ПОКОМ ЗПФ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22750F0C-EC37-4B5B-B469-23B239183105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B794981-EB1D-4E8E-AFD2-064BAE5C18F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -993,13 +993,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AX500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S7" sqref="S7"/>
+      <selection pane="bottomRight" activeCell="AF22" sqref="AF22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1986,7 +1987,7 @@
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>50</v>
       </c>
@@ -2608,7 +2609,7 @@
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>59</v>
       </c>
@@ -3614,7 +3615,7 @@
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>71</v>
       </c>
@@ -3716,7 +3717,7 @@
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>74</v>
       </c>
@@ -3970,7 +3971,7 @@
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>76</v>
       </c>
@@ -4829,7 +4830,7 @@
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>84</v>
       </c>
@@ -6231,7 +6232,7 @@
       <c r="AW43" s="1"/>
       <c r="AX43" s="1"/>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>98</v>
       </c>
@@ -7480,7 +7481,7 @@
       <c r="AW53" s="1"/>
       <c r="AX53" s="1"/>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>110</v>
       </c>
@@ -10513,7 +10514,7 @@
       <c r="AW77" s="1"/>
       <c r="AX77" s="1"/>
     </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
         <v>135</v>
       </c>
@@ -32645,7 +32646,15 @@
       <c r="AX500" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AM79" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:AM79" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="8">
+      <filters blank="1">
+        <filter val="ВНИМАНИЕ / матрица"/>
+        <filter val="матрица"/>
+        <filter val="матрица / Общий прайс"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
